--- a/output/parameters_in_database.xlsx
+++ b/output/parameters_in_database.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t xml:space="preserve">PARAMETER</t>
   </si>
@@ -26,28 +26,49 @@
     <t xml:space="preserve">Phosphorus Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-07-24 - 2024-08-02</t>
+    <t xml:space="preserve">2024-08-02 - 2024-08-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphorus Total Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrate (NO3) Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH</t>
   </si>
   <si>
     <t xml:space="preserve">Residue: Non-filterable (TSS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Phosphorus Total Dissolved</t>
+    <t xml:space="preserve">Sulfate Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrate(NO3) + Nitrite(NO2) Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen - Nitrite Dissolved (NO2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardness (Dissolved) (as CaCO3)</t>
   </si>
   <si>
     <t xml:space="preserve">Turbidity</t>
   </si>
   <si>
-    <t xml:space="preserve">Sulfate Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrate (NO3) Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardness (Dissolved) (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloride Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Ammonia Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardness Total (Total)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium Total</t>
   </si>
   <si>
     <t xml:space="preserve">Calcium Dissolved</t>
@@ -56,433 +77,754 @@
     <t xml:space="preserve">Magnesium Dissolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrate(NO3) + Nitrite(NO2) Dissolved</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sodium Dissolved</t>
   </si>
   <si>
     <t xml:space="preserve">Potassium Dissolved</t>
   </si>
   <si>
+    <t xml:space="preserve">Calcium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphorus Ort.Dis-P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadmium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manganese Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molybdenum Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimony Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenic Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boron Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadmium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobalt Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strontium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uranium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimony Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenic Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beryllium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismuth Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boron Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobalt Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manganese Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molybdenum Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potassium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicon Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicon Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strontium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thallium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tin Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uranium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanadium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beryllium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismuth Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thallium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tin Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanadium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkalinity Total 4.5 (as CaCO3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carbon Dissolved Organic</t>
   </si>
   <si>
-    <t xml:space="preserve">Hardness Total (Total)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen - Nitrite Dissolved (NO2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloride Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copper Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manganese Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molybdenum Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinc Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluminum Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antimony Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenic Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beryllium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bismuth Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boron Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadmium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobalt Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nickel Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silicon Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strontium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thallium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tin Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uranium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanadium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alkalinity Total 4.5 (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluminum Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antimony Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenic Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beryllium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bismuth Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boron Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadmium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobalt Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copper Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnesium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manganese Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molybdenum Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nickel Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potassium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silicon Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strontium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thallium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tin Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uranium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanadium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinc Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Ammonia Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanium Dissolved</t>
+    <t xml:space="preserve">Titanium Total</t>
   </si>
   <si>
     <t xml:space="preserve">Sulfur Dissolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Lithium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanium Total</t>
+    <t xml:space="preserve">Residue: Filterable 1.0u (TDS)</t>
   </si>
   <si>
     <t xml:space="preserve">Sulfur Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Phosphorus Ort.Dis-P</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zirconium Dissolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Residue: Filterable 1.0u (TDS)</t>
+    <t xml:space="preserve">Fluoride Dissolved</t>
   </si>
   <si>
     <t xml:space="preserve">Residue: Total (Total Solids)</t>
   </si>
   <si>
+    <t xml:space="preserve">Nitrogen Kjel.Tot(N)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zirconium Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Bromide Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Total Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Organic-Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Nitrogen NO2 + NO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tellerium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tungsten Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tellurium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tungsten Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Temperature-Field</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluoride Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Kjel.Tot(N)</t>
+    <t xml:space="preserve">Mercury Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicarbonate Alkalinity (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonate Alkalinity (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroxide Alkalinity (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercury Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubidium Dissolved</t>
   </si>
   <si>
     <t xml:space="preserve">Dissolved Oxygen-Field</t>
   </si>
   <si>
-    <t xml:space="preserve">Tellurium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tungsten Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercury Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercury Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tellerium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tungsten Dissolved</t>
+    <t xml:space="preserve">Color True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductivity-Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH-Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubidium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkalinity; Phenolphthalein (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidity pH 8.3 (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Ammonia Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll A</t>
   </si>
   <si>
     <t xml:space="preserve">E Coli</t>
   </si>
   <si>
-    <t xml:space="preserve">Specific Conductivity-Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromide Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Nitrogen NO2 + NO3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicarbonate Alkalinity (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Total Organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbonate Alkalinity (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydroxide Alkalinity (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alkalinity; Phenolphthalein (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Organic-Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubidium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubidium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH-Field</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biochemical Oxygen Demand</t>
   </si>
   <si>
-    <t xml:space="preserve">Color True</t>
+    <t xml:space="preserve">Cyanide Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanide WAD</t>
   </si>
   <si>
     <t xml:space="preserve">Oxid. Red. Potential</t>
   </si>
   <si>
+    <t xml:space="preserve">Thiocyanate Dissolved</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coliform - Fecal</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrogen Ammonia Dissolved</t>
+    <t xml:space="preserve">Sulfide Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen Sulfide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cation-Anion Balance %=100*(Cations-Anions)/(Cations+Anions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silica Reactive Diss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anion Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cation Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinction Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Total Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromium; Hexavalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluoride Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromium; Hexavalent; Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen (Kjeldahl) Total Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxid. Red. Potential- Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonaceous Biochemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown Selenium Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenate SeO4(-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenite SeO3(-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenocyanate SeCN(-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidity pH 4.5 (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorine Res:Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen, dissolved saturation %, field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidity-Field	</t>
   </si>
   <si>
     <t xml:space="preserve">Flow (Avg)</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydrogen Sulfide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acidity pH 8.3 (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical Oxygen Demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfide Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyll A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acidity pH 4.5 (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyanide Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyanide WAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbidity-Field	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Total Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen, dissolved saturation %, field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen (Kjeldahl) Total Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiocyanate Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluoride Total</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nitrogen Organic Total Dissolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Carbonaceous Biochemical Oxygen Demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinction Depth</t>
+    <t xml:space="preserve">Un-ionized Ammonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromobenzotrifluoride, 2 (EPH surr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimethyl Diselenide [DMDSe]; as Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimethyl Selenide [DMSe]; as Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidentified Volatile Selenium Species (As Se)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methylseleninic acid CH3SeO2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenomethionine CH3SeCH2CH2CH(NH2)CO2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Extractable Petroleum Hydrocarbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydroC Extrct/C10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Extractable Petroleum Hydrocarbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coliform - Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil &amp; Grease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lathanum Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niobium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhenium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tantalum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yttrium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bicarbonate (CAS 71-52-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbonate (CAS 3812-32-6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxide (CAS 14280-30-9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;4-Difluorobenzene (IS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Bromofluorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromium; Trivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterococcus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethylbenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M;P-Xylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radium-226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Styrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o-Xylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Dissolved Inorganic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Total Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanate Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Conductivity - Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrocarbons; Volatile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrocarbons; Volatile Petroleum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met.Tert.Butyl Ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surrogate standard used for VH analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Methylnaphthalene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Methylnaphthalene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acenaphthene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acenaphthylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acridine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthracene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzo(a)anthracene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzo(a)pyrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzo(b+j)fluoranthene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzo(b;j;k)fluoranthene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzo(g;h;i)perylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzo(k)fluoranthene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromium; Trivalent; Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrysene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrysene d12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibenzo(a;h)anthracene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluoranthene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluorene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indeno(1;2;3-cd)pyrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naphthalene (C10H8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naphthalene d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil&amp;Grease (Mineral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenanthrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenanthrene d10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinoline aka Benzo(b)pyridine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Solids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1-Dichloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1-Dichloroethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1;1-Trichloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1;1;2-Tetrachloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1;2-Trichloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1;2;2-Tetrachloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2 Dichlorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2-Dichloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2-Dichloropropane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;3-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;3-Dichloropropene (cis &amp; trans)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;4-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4,6-Tribromophenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4-Dichlorophenol-d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Chlorophenol-d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkalinity:Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromodichloromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromoform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Tetrachloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Total Inorganic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorine, total, field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorodibromomethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloroform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichloromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimethylphenol-2;4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heterotrophic Plate Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Dioxide</t>
   </si>
   <si>
     <t xml:space="preserve">Nitrogen Total Inorganic</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterococcus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxid. Red. Potential- Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silica Reactive Diss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UV Absorbance 254nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un-ionized Ammonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anion Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cation Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cation-Anion Balance %=100*(Cations-Anions)/(Cations+Anions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorine Dioxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorine Res:Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coliform - Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residue: Fixed Non-filterable (TSS; Fixed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residue: Volatile Non-filterable (TSS; Volatile)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surfactants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume Flow Rate-Stk</t>
+    <t xml:space="preserve">Particulate &lt;10u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate &lt;2.5u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfur Dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetrachloroethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total coarse particulates in air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total fine particulates in air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichloroethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichlorofluoromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinyl Chloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cis-1;2-DiClethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cis-1;3-Dichloropropene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-Cresol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o-Cresol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-Cresol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans1;2-Dichloroethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans1;3-Dichloropropene</t>
   </si>
 </sst>
 </file>
@@ -830,7 +1172,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>169</v>
+        <v>756</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -841,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>158</v>
+        <v>654</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -852,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>157</v>
+        <v>544</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -863,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>127</v>
+        <v>517</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -874,7 +1216,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>122</v>
+        <v>505</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -885,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>114</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -896,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>113</v>
+        <v>493</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -907,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>107</v>
+        <v>488</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -918,7 +1260,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>106</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -929,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>106</v>
+        <v>466</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -940,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -951,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -962,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -973,7 +1315,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>97</v>
+        <v>422</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -984,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>94</v>
+        <v>421</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -995,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>94</v>
+        <v>420</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1006,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -1017,7 +1359,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>93</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -1028,7 +1370,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>92</v>
+        <v>414</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1039,7 +1381,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>92</v>
+        <v>402</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1050,7 +1392,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>92</v>
+        <v>402</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1061,7 +1403,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>92</v>
+        <v>395</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1072,7 +1414,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>92</v>
+        <v>393</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1083,7 +1425,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>91</v>
+        <v>393</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1094,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>90</v>
+        <v>391</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1105,7 +1447,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>90</v>
+        <v>391</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1116,7 +1458,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>90</v>
+        <v>391</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -1127,7 +1469,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>90</v>
+        <v>391</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -1138,7 +1480,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>90</v>
+        <v>391</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1149,7 +1491,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>90</v>
+        <v>391</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1160,7 +1502,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1171,7 +1513,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1182,7 +1524,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1193,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1204,7 +1546,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1215,7 +1557,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1226,7 +1568,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1237,7 +1579,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1248,7 +1590,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1259,7 +1601,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1270,7 +1612,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1281,7 +1623,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1292,7 +1634,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1303,7 +1645,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1314,7 +1656,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1325,7 +1667,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>85</v>
+        <v>389</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1336,7 +1678,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1347,7 +1689,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1358,7 +1700,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1369,7 +1711,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1380,7 +1722,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1391,7 +1733,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1402,7 +1744,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1413,7 +1755,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1424,7 +1766,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1435,7 +1777,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1446,7 +1788,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -1457,7 +1799,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1468,7 +1810,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1479,7 +1821,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1490,7 +1832,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1501,7 +1843,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1512,7 +1854,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -1523,7 +1865,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1534,7 +1876,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>84</v>
+        <v>389</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1545,7 +1887,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1556,7 +1898,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1567,7 +1909,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -1578,7 +1920,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1589,7 +1931,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1600,7 +1942,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -1611,7 +1953,7 @@
         <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -1622,7 +1964,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>84</v>
+        <v>388</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -1633,7 +1975,7 @@
         <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>83</v>
+        <v>377</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -1644,7 +1986,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1655,7 +1997,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -1666,7 +2008,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="n">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -1677,7 +2019,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="n">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -1688,7 +2030,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="n">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1699,7 +2041,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="n">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -1710,7 +2052,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="n">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1721,7 +2063,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>72</v>
+        <v>318</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -1732,7 +2074,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -1743,7 +2085,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="n">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -1754,7 +2096,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>64</v>
+        <v>283</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -1765,7 +2107,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="n">
-        <v>64</v>
+        <v>278</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -1776,7 +2118,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="n">
-        <v>52</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -1787,7 +2129,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="n">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -1798,7 +2140,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="n">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -1809,7 +2151,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="n">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -1820,7 +2162,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="n">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -1831,7 +2173,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="n">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -1842,7 +2184,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="n">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -1853,7 +2195,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="n">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -1864,7 +2206,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -1875,7 +2217,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -1886,7 +2228,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -1897,7 +2239,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -1908,7 +2250,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="n">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -1919,7 +2261,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="n">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -1930,7 +2272,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -1941,7 +2283,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -1952,7 +2294,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -1963,7 +2305,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -1974,7 +2316,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -1985,7 +2327,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -1996,7 +2338,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -2007,7 +2349,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -2018,7 +2360,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -2029,7 +2371,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -2040,7 +2382,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -2051,7 +2393,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -2062,7 +2404,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -2073,7 +2415,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -2084,7 +2426,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -2095,7 +2437,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -2106,7 +2448,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -2117,7 +2459,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -2128,7 +2470,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -2139,7 +2481,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -2150,7 +2492,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -2161,7 +2503,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -2172,7 +2514,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -2183,7 +2525,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -2194,7 +2536,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -2205,7 +2547,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -2216,7 +2558,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -2227,7 +2569,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -2238,7 +2580,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -2249,7 +2591,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -2260,7 +2602,7 @@
         <v>134</v>
       </c>
       <c r="B132" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -2271,7 +2613,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -2282,7 +2624,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -2293,7 +2635,7 @@
         <v>137</v>
       </c>
       <c r="B135" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -2304,7 +2646,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -2315,7 +2657,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -2326,7 +2668,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -2337,7 +2679,7 @@
         <v>141</v>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -2348,7 +2690,7 @@
         <v>142</v>
       </c>
       <c r="B140" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -2359,7 +2701,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -2370,7 +2712,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -2381,7 +2723,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -2392,7 +2734,7 @@
         <v>146</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -2403,7 +2745,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -2414,7 +2756,7 @@
         <v>148</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
@@ -2425,7 +2767,7 @@
         <v>149</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -2436,7 +2778,7 @@
         <v>150</v>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -2447,7 +2789,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -2458,7 +2800,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -2469,7 +2811,7 @@
         <v>153</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -2480,7 +2822,7 @@
         <v>154</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
@@ -2491,7 +2833,7 @@
         <v>155</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
         <v>4</v>
@@ -2502,9 +2844,1263 @@
         <v>156</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="n">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="n">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="n">
+        <v>10</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="n">
+        <v>10</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="n">
+        <v>10</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="n">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="C196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="C198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+      <c r="C200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>240</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>241</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>243</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>244</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>245</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>246</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>247</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>248</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>249</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>250</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>251</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>252</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>255</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>256</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>257</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>258</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>260</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>265</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>266</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>268</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>269</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>270</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
         <v>4</v>
       </c>
     </row>

--- a/output/parameters_in_database.xlsx
+++ b/output/parameters_in_database.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t xml:space="preserve">PARAMETER</t>
   </si>
@@ -23,487 +23,685 @@
     <t xml:space="preserve">date_range_of_recent_data_chunk</t>
   </si>
   <si>
+    <t xml:space="preserve">pH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-15 - 2025-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residue: Non-filterable (TSS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phosphorus Total</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-08-02 - 2024-08-22</t>
+    <t xml:space="preserve">Nitrate (NO3) Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardness (Dissolved) (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrate(NO3) + Nitrite(NO2) Dissolved</t>
   </si>
   <si>
     <t xml:space="preserve">Phosphorus Total Dissolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrate (NO3) Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residue: Non-filterable (TSS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sulfate Dissolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrate(NO3) + Nitrite(NO2) Dissolved</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nitrogen - Nitrite Dissolved (NO2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Hardness (Dissolved) (as CaCO3)</t>
+    <t xml:space="preserve">Calcium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnesium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potassium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloride Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copper Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadmium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manganese Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molybdenum Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimony Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobalt Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenic Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uranium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boron Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strontium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanadium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beryllium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismuth Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thallium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tin Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Ammonia Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanium Dissolved</t>
   </si>
   <si>
     <t xml:space="preserve">Turbidity</t>
   </si>
   <si>
-    <t xml:space="preserve">Specific Conductance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloride Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Ammonia Total</t>
+    <t xml:space="preserve">Copper Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadmium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinc Total</t>
   </si>
   <si>
     <t xml:space="preserve">Hardness Total (Total)</t>
   </si>
   <si>
-    <t xml:space="preserve">Selenium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnesium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potassium Dissolved</t>
+    <t xml:space="preserve">Iron Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molybdenum Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barium Total</t>
   </si>
   <si>
     <t xml:space="preserve">Calcium Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Manganese Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenic Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boron Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobalt Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Magnesium Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Potassium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimony Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strontium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uranium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beryllium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bismuth Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thallium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tin Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanadium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titanium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithium Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Phosphorus Ort.Dis-P</t>
   </si>
   <si>
-    <t xml:space="preserve">Copper Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluminum Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadmium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manganese Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molybdenum Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinc Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antimony Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenic Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boron Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadmium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobalt Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copper Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nickel Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strontium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uranium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aluminum Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antimony Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenic Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beryllium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bismuth Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boron Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobalt Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manganese Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molybdenum Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nickel Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potassium Total</t>
+    <t xml:space="preserve">Carbon Dissolved Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluoride Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residue: Filterable 1.0u (TDS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residue: Total (Total Solids)</t>
   </si>
   <si>
     <t xml:space="preserve">Silicon Dissolved</t>
   </si>
   <si>
+    <t xml:space="preserve">Temperature-Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkalinity Total 4.5 (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow (Avg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromide Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissolved Oxygen-Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific Conductivity-Field</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silicon Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Silver Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strontium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thallium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tin Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uranium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanadium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinc Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beryllium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bismuth Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thallium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tin Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanadium Total</t>
+    <t xml:space="preserve">Sulfur Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercury Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercury Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Kjel.Tot(N)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zirconium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfur Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Total Organic</t>
   </si>
   <si>
     <t xml:space="preserve">Nitrogen Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Lithium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alkalinity Total 4.5 (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Dissolved Organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titanium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfur Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residue: Filterable 1.0u (TDS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfur Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zirconium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluoride Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residue: Total (Total Solids)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Kjel.Tot(N)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zirconium Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Bromide Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Total Organic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nitrogen Organic-Total</t>
   </si>
   <si>
+    <t xml:space="preserve">Tungsten Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tellerium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biochemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidity-Field	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tungsten Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tellurium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thorium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubidium Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production Quant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicarbonate Alkalinity (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonate Alkalinity (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroxide Alkalinity (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubidium Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkalinity:Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkalinity; Phenolphthalein (as CaCO3)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Nitrogen NO2 + NO3</t>
   </si>
   <si>
-    <t xml:space="preserve">Tellerium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tungsten Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tellurium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thorium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tungsten Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature-Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercury Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicarbonate Alkalinity (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbonate Alkalinity (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydroxide Alkalinity (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercury Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubidium Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dissolved Oxygen-Field</t>
+    <t xml:space="preserve">Nitrogen Ammonia Dissolved</t>
   </si>
   <si>
     <t xml:space="preserve">Color True</t>
   </si>
   <si>
-    <t xml:space="preserve">Specific Conductivity-Field</t>
+    <t xml:space="preserve">Acidity pH 8.3 (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfide Total</t>
   </si>
   <si>
     <t xml:space="preserve">pH-Field</t>
   </si>
   <si>
-    <t xml:space="preserve">Cesium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubidium Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alkalinity; Phenolphthalein (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acidity pH 8.3 (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Ammonia Dissolved</t>
+    <t xml:space="preserve">Coliform - Fecal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow (Rate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown Selenium Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methylseleninic acid CH3SeO2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenate SeO4(-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenite SeO3(-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenocyanate SeCN(-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selenomethionine CH3SeCH2CH2CH(NH2)CO2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxid. Red. Potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanide Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxygen Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanide WAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimethylseleneoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methaneselenonic Acid CH4O3Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenosulfate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E Coli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cation-Anion Balance %=100*(Cations-Anions)/(Cations+Anions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiocyanate Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonaceous Biochemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen Sulfide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Total Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio. LC50:Daphnia Magna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen (Kjeldahl) Total Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorine Res:Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfide Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anion Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cation Sum</t>
   </si>
   <si>
     <t xml:space="preserve">Chlorophyll A</t>
   </si>
   <si>
-    <t xml:space="preserve">E Coli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biochemical Oxygen Demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyanide Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyanide WAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxid. Red. Potential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiocyanate Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coliform - Fecal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfide Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrogen Sulfide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cation-Anion Balance %=100*(Cations-Anions)/(Cations+Anions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silica Reactive Diss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical Oxygen Demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anion Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cation Sum</t>
+    <t xml:space="preserve">Hydrogen Peroxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color S./W. Diss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone for water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un-ionized Ammonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adsorbable Organic Halides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluoride Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Solids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Organic Total Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidity pH 4.5 (as CaCO3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromobenzotrifluoride, 2 (EPH surr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxid. Red. Potential- Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Dustfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Dustfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volatile Dustfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HydroC Extrct/C10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radium-226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromide Extractable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercury- Methyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Extractable Petroleum Hydrocarbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Extractable Petroleum Hydrocarbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphorus Ortho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanate Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coliform - Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyanide; Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio. LC50:Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromate Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Dioxide</t>
   </si>
   <si>
     <t xml:space="preserve">Extinction Depth</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrogen Total Dissolved</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chromium; Hexavalent</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluoride Total</t>
+    <t xml:space="preserve">Bioassay(Pass/Fail):Daphnia Magna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish Bioassay(Pass/Fail)</t>
   </si>
   <si>
     <t xml:space="preserve">Chromium; Hexavalent; Dissolved</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrogen (Kjeldahl) Total Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxid. Red. Potential- Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbonaceous Biochemical Oxygen Demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown Selenium Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenate SeO4(-2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenite SeO3(-2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenocyanate SeCN(-1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acidity pH 4.5 (as CaCO3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorine Res:Total</t>
+    <t xml:space="preserve">bicarbonate (CAS 71-52-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbonate (CAS 3812-32-6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimethyl Diselenide [DMDSe]; as Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimethyl Selenide [DMSe]; as Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidentified Volatile Selenium Species (As Se)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxide (CAS 14280-30-9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;4-Difluorobenzene (IS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Bromofluorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate &lt;2.5u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Total Inorganic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethylbenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrocarbons; Volatile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Styrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surrogate standard used for VH analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toluene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M;P-Xylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Petroleum Hydrocarbons (TPH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o-Xylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met.Tert.Butyl Ether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfate Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfur Dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrocarbons; Volatile Petroleum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen NO2 Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen NO3 Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate:Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil &amp; Grease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residue: Fixed Non-filterable (TSS; Fixed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residue: Volatile Non-filterable (TSS; Volatile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Conductivity - Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 (C6-C10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1-BTEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulate &lt;10u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total coarse particulates in air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total fine particulates in air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Total Inorganic</t>
   </si>
   <si>
     <t xml:space="preserve">Oxygen, dissolved saturation %, field</t>
   </si>
   <si>
-    <t xml:space="preserve">Turbidity-Field	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flow (Avg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Organic Total Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un-ionized Ammonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromobenzotrifluoride, 2 (EPH surr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimethyl Diselenide [DMDSe]; as Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimethyl Selenide [DMSe]; as Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidentified Volatile Selenium Species (As Se)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">methylseleninic acid CH3SeO2H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selenomethionine CH3SeCH2CH2CH(NH2)CO2H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy Extractable Petroleum Hydrocarbons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HydroC Extrct/C10-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light Extractable Petroleum Hydrocarbons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coliform - Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil &amp; Grease</t>
+    <t xml:space="preserve">Extractable Petroleum Hydrocarbons C10 - C32</t>
   </si>
   <si>
     <t xml:space="preserve">Gallium Total</t>
@@ -524,79 +722,52 @@
     <t xml:space="preserve">Yttrium Total</t>
   </si>
   <si>
-    <t xml:space="preserve">bicarbonate (CAS 71-52-3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbonate (CAS 3812-32-6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydroxide (CAS 14280-30-9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;4-Difluorobenzene (IS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Bromofluorobenzene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzene</t>
+    <t xml:space="preserve">2,4,6-Tribromophenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4-Dichlorophenol-d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Chlorophenol-d4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimethylphenol-2;4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m-Cresol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o-Cresol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-Cresol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Dissolved Inorganic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Total Dissolved</t>
   </si>
   <si>
     <t xml:space="preserve">Chromium; Trivalent</t>
   </si>
   <si>
+    <t xml:space="preserve">Dehydroabietic Acid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enterococcus</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethylbenzene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M;P-Xylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radium-226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Styrene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toluene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o-Xylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Dissolved Inorganic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Total Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyanate Dissolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electrical Conductivity - Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocarbons; Volatile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrocarbons; Volatile Petroleum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Met.Tert.Butyl Ether</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surrogate standard used for VH analysis</t>
+    <t xml:space="preserve">Chromium; Trivalent; Dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surfactants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV Absorbance 254nm</t>
   </si>
   <si>
     <t xml:space="preserve">1-Methylnaphthalene</t>
@@ -635,9 +806,6 @@
     <t xml:space="preserve">Benzo(k)fluoranthene</t>
   </si>
   <si>
-    <t xml:space="preserve">Chromium; Trivalent; Dissolved</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chrysene</t>
   </si>
   <si>
@@ -656,175 +824,238 @@
     <t xml:space="preserve">Indeno(1;2;3-cd)pyrene</t>
   </si>
   <si>
+    <t xml:space="preserve">MIBC - Methyl Isobutyl Carbinol or 4-Methyl-2-pentanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methylmercury (as MeHg), dissolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moisture</t>
+  </si>
+  <si>
     <t xml:space="preserve">Naphthalene (C10H8)</t>
   </si>
   <si>
     <t xml:space="preserve">Naphthalene d8</t>
   </si>
   <si>
+    <t xml:space="preserve">Phenanthrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenanthrene d10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyrene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinoline aka Benzo(b)pyridine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residue: Tot.Volatile (Total Solids; Volatile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Polyaromatic Hydrocarbons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Flow Rate-Stk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1-Dichloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1;1-Trichloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1;2-Trichloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1;2;2-Tetrachloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2-Dichloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2-Dichloropropane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;3-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;3-Dichloropropene (cis &amp; trans)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;4-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90th %tile Effluent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromodichloromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromoform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Tetrachloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorine, total, field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloroform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPHw10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPHw19-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heterotrophic Plate Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichlorofluoromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UV Transmittance 254nm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinyl Chloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1-Dichloroethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1;1;2-Tetrachloroethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2 Dichlorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90th %tile (CB Prod)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90th %tile (Production)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorodibromomethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichloromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langelier index (@ 15C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langelier index (@ 20C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langelier index (@ 25C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langelier index (@ 4C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langelier index (@ 60C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrogen Oxides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainbow Trout Bioassay (Pass/Fail)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetrachloroethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Reduced Sulfur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichloroethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cis-1;2-DiClethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cis-1;3-Dichloropropene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans1;2-Dichloroethylene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans1;3-Dichloropropene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;1-Dichloroethene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2-Dibromoethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1;2-Dichlorobenzene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B(a)P Total Potency Equivalent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorine Dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibromochloromethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dibromomethane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Solids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methylene Chloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methylnaphthalenes; 1+2- (PA28+PA29)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oil&amp;Grease (Mineral)</t>
   </si>
   <si>
-    <t xml:space="preserve">Phenanthrene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenanthrene d10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pyrene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinoline aka Benzo(b)pyridine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Solids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;1-Dichloroethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;1-Dichloroethylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;1;1-Trichloroethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;1;1;2-Tetrachloroethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;1;2-Trichloroethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;1;2;2-Tetrachloroethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;2 Dichlorobenzene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;2-Dichloroethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;2-Dichloropropane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;3-Dichlorobenzene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;3-Dichloropropene (cis &amp; trans)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1;4-Dichlorobenzene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4,6-Tribromophenol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4-Dichlorophenol-d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Chlorophenol-d4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alkalinity:Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromodichloromethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bromoform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Tetrachloride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon Total Inorganic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorine, total, field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorobenzene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorodibromomethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloroethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloroform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloromethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichloromethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimethylphenol-2;4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heterotrophic Plate Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Dioxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitrogen Total Inorganic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate &lt;10u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulate &lt;2.5u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulfur Dioxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetrachloroethylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total coarse particulates in air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total fine particulates in air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichloroethylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trichlorofluoromethane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vinyl Chloride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cis-1;2-DiClethylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cis-1;3-Dichloropropene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m-Cresol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o-Cresol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-Cresol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trans1;2-Dichloroethylene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trans1;3-Dichloropropene</t>
+    <t xml:space="preserve">Organic Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAH's; High Molecular Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAH's; Low Molecular Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resin Acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetrachloroethene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Inorganic Carbon as CaCO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichloroethene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cis-1;2-Dichloroethene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans-1;2-Dichloroethene</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1403,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>756</v>
+        <v>4731</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1183,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>654</v>
+        <v>3776</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -1194,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>544</v>
+        <v>3339</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1205,7 +1436,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>517</v>
+        <v>3074</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1216,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>505</v>
+        <v>2774</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1227,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>495</v>
+        <v>2740</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -1238,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>493</v>
+        <v>2492</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1249,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>488</v>
+        <v>2488</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1260,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>474</v>
+        <v>2471</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1271,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>466</v>
+        <v>2440</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -1282,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>447</v>
+        <v>2401</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -1293,7 +1524,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>444</v>
+        <v>2401</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1304,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>428</v>
+        <v>2370</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -1315,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>422</v>
+        <v>2351</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1326,7 +1557,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>421</v>
+        <v>2303</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1337,7 +1568,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>420</v>
+        <v>2296</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1348,7 +1579,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>420</v>
+        <v>2284</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -1359,7 +1590,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>415</v>
+        <v>2275</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -1370,7 +1601,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>414</v>
+        <v>2273</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1381,7 +1612,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>402</v>
+        <v>2262</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1392,7 +1623,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>402</v>
+        <v>2256</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1403,7 +1634,7 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>395</v>
+        <v>2246</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1414,7 +1645,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>393</v>
+        <v>2240</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1425,7 +1656,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>393</v>
+        <v>2239</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1436,7 +1667,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>391</v>
+        <v>2239</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1447,7 +1678,7 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>391</v>
+        <v>2238</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1458,7 +1689,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>391</v>
+        <v>2236</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -1469,7 +1700,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>391</v>
+        <v>2236</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -1480,7 +1711,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>391</v>
+        <v>2235</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1491,7 +1722,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>391</v>
+        <v>2234</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1502,7 +1733,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>390</v>
+        <v>2234</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1513,7 +1744,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>390</v>
+        <v>2233</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1524,7 +1755,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>390</v>
+        <v>2233</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1535,7 +1766,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>390</v>
+        <v>2230</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1546,7 +1777,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>390</v>
+        <v>2230</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1557,7 +1788,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>390</v>
+        <v>2230</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1568,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>390</v>
+        <v>2229</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1579,7 +1810,7 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>390</v>
+        <v>2229</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1590,7 +1821,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>390</v>
+        <v>2229</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1601,7 +1832,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>390</v>
+        <v>2229</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1612,7 +1843,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>390</v>
+        <v>2227</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1623,7 +1854,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>390</v>
+        <v>2222</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1634,7 +1865,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>389</v>
+        <v>2218</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1645,7 +1876,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>389</v>
+        <v>2046</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1656,7 +1887,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>389</v>
+        <v>2035</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1667,7 +1898,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>389</v>
+        <v>2034</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1678,7 +1909,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>389</v>
+        <v>2030</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1689,7 +1920,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>389</v>
+        <v>2029</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1700,7 +1931,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>389</v>
+        <v>2016</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1711,7 +1942,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>389</v>
+        <v>2014</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1722,7 +1953,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>389</v>
+        <v>2013</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1733,7 +1964,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>389</v>
+        <v>2011</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1744,7 +1975,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>389</v>
+        <v>2011</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1755,7 +1986,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>389</v>
+        <v>2011</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1766,7 +1997,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>389</v>
+        <v>2010</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1777,7 +2008,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>389</v>
+        <v>2010</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1788,7 +2019,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>389</v>
+        <v>2010</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -1799,7 +2030,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>389</v>
+        <v>2009</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1810,7 +2041,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>389</v>
+        <v>2009</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1821,7 +2052,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>389</v>
+        <v>2009</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1832,7 +2063,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>389</v>
+        <v>2009</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1843,7 +2074,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>389</v>
+        <v>2009</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1854,7 +2085,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>389</v>
+        <v>2007</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -1865,7 +2096,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>389</v>
+        <v>2007</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1876,7 +2107,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>389</v>
+        <v>2007</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1887,7 +2118,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>388</v>
+        <v>2006</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1898,7 +2129,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>388</v>
+        <v>2003</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -1909,7 +2140,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>388</v>
+        <v>2001</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -1920,7 +2151,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>388</v>
+        <v>2001</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1931,7 +2162,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>388</v>
+        <v>2001</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -1942,7 +2173,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>388</v>
+        <v>2001</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -1953,7 +2184,7 @@
         <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>388</v>
+        <v>2001</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -1964,7 +2195,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>388</v>
+        <v>1998</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -1975,7 +2206,7 @@
         <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>377</v>
+        <v>1993</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -1986,7 +2217,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>371</v>
+        <v>1952</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1997,7 +2228,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>370</v>
+        <v>1925</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -2008,7 +2239,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="n">
-        <v>369</v>
+        <v>1867</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -2019,7 +2250,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="n">
-        <v>368</v>
+        <v>1852</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -2030,7 +2261,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="n">
-        <v>367</v>
+        <v>1797</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -2041,7 +2272,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="n">
-        <v>338</v>
+        <v>1676</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -2052,7 +2283,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="n">
-        <v>326</v>
+        <v>1647</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -2063,7 +2294,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>318</v>
+        <v>1615</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -2074,7 +2305,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="n">
-        <v>301</v>
+        <v>1605</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -2085,7 +2316,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="n">
-        <v>286</v>
+        <v>1575</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -2096,7 +2327,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>283</v>
+        <v>1515</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -2107,7 +2338,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="n">
-        <v>278</v>
+        <v>1489</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -2118,7 +2349,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="n">
-        <v>269</v>
+        <v>1483</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -2129,7 +2360,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="n">
-        <v>262</v>
+        <v>1469</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -2140,7 +2371,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="n">
-        <v>241</v>
+        <v>1452</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -2151,7 +2382,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="n">
-        <v>221</v>
+        <v>1433</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -2162,7 +2393,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="n">
-        <v>214</v>
+        <v>1425</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -2173,7 +2404,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="n">
-        <v>212</v>
+        <v>1348</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -2184,7 +2415,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="n">
-        <v>208</v>
+        <v>1288</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -2195,7 +2426,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="n">
-        <v>208</v>
+        <v>1267</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -2206,7 +2437,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>208</v>
+        <v>1200</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -2217,7 +2448,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>192</v>
+        <v>1189</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -2228,7 +2459,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>192</v>
+        <v>1119</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -2239,7 +2470,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>192</v>
+        <v>1001</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -2250,7 +2481,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="n">
-        <v>186</v>
+        <v>1000</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2261,7 +2492,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="n">
-        <v>181</v>
+        <v>1000</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -2272,7 +2503,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>172</v>
+        <v>913</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -2283,7 +2514,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>172</v>
+        <v>897</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -2294,7 +2525,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>172</v>
+        <v>878</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -2305,7 +2536,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>163</v>
+        <v>876</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -2316,7 +2547,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>162</v>
+        <v>876</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -2327,7 +2558,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>162</v>
+        <v>815</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -2338,7 +2569,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>158</v>
+        <v>790</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -2349,7 +2580,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>146</v>
+        <v>790</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -2360,7 +2591,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>146</v>
+        <v>720</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -2371,7 +2602,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>143</v>
+        <v>694</v>
       </c>
       <c r="C111" t="s">
         <v>4</v>
@@ -2382,7 +2613,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>138</v>
+        <v>693</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -2393,7 +2624,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>138</v>
+        <v>693</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -2404,7 +2635,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>137</v>
+        <v>658</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -2415,7 +2646,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>107</v>
+        <v>658</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -2426,7 +2657,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>97</v>
+        <v>653</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -2437,7 +2668,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>88</v>
+        <v>619</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -2448,7 +2679,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>80</v>
+        <v>586</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -2459,7 +2690,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>72</v>
+        <v>546</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -2470,7 +2701,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>71</v>
+        <v>511</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -2481,7 +2712,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>491</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -2492,7 +2723,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="n">
-        <v>65</v>
+        <v>486</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -2503,7 +2734,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>63</v>
+        <v>465</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -2514,7 +2745,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="n">
-        <v>59</v>
+        <v>439</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -2525,7 +2756,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="n">
-        <v>57</v>
+        <v>399</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -2536,7 +2767,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="n">
-        <v>56</v>
+        <v>349</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -2547,7 +2778,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="n">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -2558,7 +2789,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="n">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -2569,7 +2800,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="n">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -2580,7 +2811,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="n">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -2591,7 +2822,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="n">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -2602,7 +2833,7 @@
         <v>134</v>
       </c>
       <c r="B132" t="n">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -2613,7 +2844,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="n">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -2624,7 +2855,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="n">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -2635,7 +2866,7 @@
         <v>137</v>
       </c>
       <c r="B135" t="n">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -2646,7 +2877,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="n">
-        <v>21</v>
+        <v>237</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -2657,7 +2888,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="n">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -2668,7 +2899,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="n">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -2679,7 +2910,7 @@
         <v>141</v>
       </c>
       <c r="B139" t="n">
-        <v>19</v>
+        <v>236</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -2690,7 +2921,7 @@
         <v>142</v>
       </c>
       <c r="B140" t="n">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -2701,7 +2932,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="n">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -2712,7 +2943,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="n">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -2723,7 +2954,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="n">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
@@ -2734,7 +2965,7 @@
         <v>146</v>
       </c>
       <c r="B144" t="n">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -2745,7 +2976,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -2756,7 +2987,7 @@
         <v>148</v>
       </c>
       <c r="B146" t="n">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
@@ -2767,7 +2998,7 @@
         <v>149</v>
       </c>
       <c r="B147" t="n">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -2778,7 +3009,7 @@
         <v>150</v>
       </c>
       <c r="B148" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -2789,7 +3020,7 @@
         <v>151</v>
       </c>
       <c r="B149" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -2800,7 +3031,7 @@
         <v>152</v>
       </c>
       <c r="B150" t="n">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -2811,7 +3042,7 @@
         <v>153</v>
       </c>
       <c r="B151" t="n">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -2822,7 +3053,7 @@
         <v>154</v>
       </c>
       <c r="B152" t="n">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
@@ -2833,7 +3064,7 @@
         <v>155</v>
       </c>
       <c r="B153" t="n">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C153" t="s">
         <v>4</v>
@@ -2844,7 +3075,7 @@
         <v>156</v>
       </c>
       <c r="B154" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -2855,7 +3086,7 @@
         <v>157</v>
       </c>
       <c r="B155" t="n">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C155" t="s">
         <v>4</v>
@@ -2866,7 +3097,7 @@
         <v>158</v>
       </c>
       <c r="B156" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
@@ -2877,7 +3108,7 @@
         <v>159</v>
       </c>
       <c r="B157" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C157" t="s">
         <v>4</v>
@@ -2888,7 +3119,7 @@
         <v>160</v>
       </c>
       <c r="B158" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
@@ -2899,7 +3130,7 @@
         <v>161</v>
       </c>
       <c r="B159" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
@@ -2910,7 +3141,7 @@
         <v>162</v>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
@@ -2921,7 +3152,7 @@
         <v>163</v>
       </c>
       <c r="B161" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
@@ -2932,7 +3163,7 @@
         <v>164</v>
       </c>
       <c r="B162" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C162" t="s">
         <v>4</v>
@@ -2943,7 +3174,7 @@
         <v>165</v>
       </c>
       <c r="B163" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C163" t="s">
         <v>4</v>
@@ -2954,7 +3185,7 @@
         <v>166</v>
       </c>
       <c r="B164" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
@@ -2965,7 +3196,7 @@
         <v>167</v>
       </c>
       <c r="B165" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C165" t="s">
         <v>4</v>
@@ -2976,7 +3207,7 @@
         <v>168</v>
       </c>
       <c r="B166" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
@@ -2987,7 +3218,7 @@
         <v>169</v>
       </c>
       <c r="B167" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -2998,7 +3229,7 @@
         <v>170</v>
       </c>
       <c r="B168" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -3009,7 +3240,7 @@
         <v>171</v>
       </c>
       <c r="B169" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
@@ -3020,7 +3251,7 @@
         <v>172</v>
       </c>
       <c r="B170" t="n">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -3031,7 +3262,7 @@
         <v>173</v>
       </c>
       <c r="B171" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -3042,7 +3273,7 @@
         <v>174</v>
       </c>
       <c r="B172" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -3053,7 +3284,7 @@
         <v>175</v>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
@@ -3064,7 +3295,7 @@
         <v>176</v>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
@@ -3075,7 +3306,7 @@
         <v>177</v>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C175" t="s">
         <v>4</v>
@@ -3086,7 +3317,7 @@
         <v>178</v>
       </c>
       <c r="B176" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C176" t="s">
         <v>4</v>
@@ -3097,7 +3328,7 @@
         <v>179</v>
       </c>
       <c r="B177" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C177" t="s">
         <v>4</v>
@@ -3108,7 +3339,7 @@
         <v>180</v>
       </c>
       <c r="B178" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C178" t="s">
         <v>4</v>
@@ -3119,7 +3350,7 @@
         <v>181</v>
       </c>
       <c r="B179" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -3130,7 +3361,7 @@
         <v>182</v>
       </c>
       <c r="B180" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -3141,7 +3372,7 @@
         <v>183</v>
       </c>
       <c r="B181" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
@@ -3152,7 +3383,7 @@
         <v>184</v>
       </c>
       <c r="B182" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -3163,7 +3394,7 @@
         <v>185</v>
       </c>
       <c r="B183" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -3174,7 +3405,7 @@
         <v>186</v>
       </c>
       <c r="B184" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -3185,7 +3416,7 @@
         <v>187</v>
       </c>
       <c r="B185" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
@@ -3196,7 +3427,7 @@
         <v>188</v>
       </c>
       <c r="B186" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -3207,7 +3438,7 @@
         <v>189</v>
       </c>
       <c r="B187" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
@@ -3218,7 +3449,7 @@
         <v>190</v>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
@@ -3229,7 +3460,7 @@
         <v>191</v>
       </c>
       <c r="B189" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C189" t="s">
         <v>4</v>
@@ -3240,7 +3471,7 @@
         <v>192</v>
       </c>
       <c r="B190" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
@@ -3251,7 +3482,7 @@
         <v>193</v>
       </c>
       <c r="B191" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
@@ -3262,7 +3493,7 @@
         <v>194</v>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C192" t="s">
         <v>4</v>
@@ -3273,7 +3504,7 @@
         <v>195</v>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C193" t="s">
         <v>4</v>
@@ -3284,7 +3515,7 @@
         <v>196</v>
       </c>
       <c r="B194" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C194" t="s">
         <v>4</v>
@@ -3295,7 +3526,7 @@
         <v>197</v>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C195" t="s">
         <v>4</v>
@@ -3306,7 +3537,7 @@
         <v>198</v>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C196" t="s">
         <v>4</v>
@@ -3317,7 +3548,7 @@
         <v>199</v>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C197" t="s">
         <v>4</v>
@@ -3328,7 +3559,7 @@
         <v>200</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C198" t="s">
         <v>4</v>
@@ -3339,7 +3570,7 @@
         <v>201</v>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
@@ -3350,7 +3581,7 @@
         <v>202</v>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C200" t="s">
         <v>4</v>
@@ -3361,7 +3592,7 @@
         <v>203</v>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C201" t="s">
         <v>4</v>
@@ -3372,7 +3603,7 @@
         <v>204</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C202" t="s">
         <v>4</v>
@@ -3383,7 +3614,7 @@
         <v>205</v>
       </c>
       <c r="B203" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
         <v>4</v>
@@ -3394,7 +3625,7 @@
         <v>206</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C204" t="s">
         <v>4</v>
@@ -3405,7 +3636,7 @@
         <v>207</v>
       </c>
       <c r="B205" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C205" t="s">
         <v>4</v>
@@ -3416,7 +3647,7 @@
         <v>208</v>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
         <v>4</v>
@@ -3427,7 +3658,7 @@
         <v>209</v>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
         <v>4</v>
@@ -3438,7 +3669,7 @@
         <v>210</v>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C208" t="s">
         <v>4</v>
@@ -3449,7 +3680,7 @@
         <v>211</v>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
@@ -3460,7 +3691,7 @@
         <v>212</v>
       </c>
       <c r="B210" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
         <v>4</v>
@@ -3471,7 +3702,7 @@
         <v>213</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C211" t="s">
         <v>4</v>
@@ -3482,7 +3713,7 @@
         <v>214</v>
       </c>
       <c r="B212" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
         <v>4</v>
@@ -3493,7 +3724,7 @@
         <v>215</v>
       </c>
       <c r="B213" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C213" t="s">
         <v>4</v>
@@ -3504,7 +3735,7 @@
         <v>216</v>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
         <v>4</v>
@@ -3515,7 +3746,7 @@
         <v>217</v>
       </c>
       <c r="B215" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C215" t="s">
         <v>4</v>
@@ -3526,7 +3757,7 @@
         <v>218</v>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C216" t="s">
         <v>4</v>
@@ -3537,7 +3768,7 @@
         <v>219</v>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
         <v>4</v>
@@ -3548,7 +3779,7 @@
         <v>220</v>
       </c>
       <c r="B218" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
         <v>4</v>
@@ -3559,7 +3790,7 @@
         <v>221</v>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
         <v>4</v>
@@ -3570,7 +3801,7 @@
         <v>222</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
         <v>4</v>
@@ -3581,7 +3812,7 @@
         <v>223</v>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C221" t="s">
         <v>4</v>
@@ -3592,7 +3823,7 @@
         <v>224</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C222" t="s">
         <v>4</v>
@@ -3603,7 +3834,7 @@
         <v>225</v>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C223" t="s">
         <v>4</v>
@@ -3614,7 +3845,7 @@
         <v>226</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C224" t="s">
         <v>4</v>
@@ -3625,7 +3856,7 @@
         <v>227</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
         <v>4</v>
@@ -3636,7 +3867,7 @@
         <v>228</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C226" t="s">
         <v>4</v>
@@ -3647,7 +3878,7 @@
         <v>229</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C227" t="s">
         <v>4</v>
@@ -3658,7 +3889,7 @@
         <v>230</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
         <v>4</v>
@@ -3669,7 +3900,7 @@
         <v>231</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
         <v>4</v>
@@ -3680,7 +3911,7 @@
         <v>232</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
         <v>4</v>
@@ -3691,7 +3922,7 @@
         <v>233</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
         <v>4</v>
@@ -3702,7 +3933,7 @@
         <v>234</v>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
         <v>4</v>
@@ -3713,7 +3944,7 @@
         <v>235</v>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
         <v>4</v>
@@ -3724,7 +3955,7 @@
         <v>236</v>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>4</v>
@@ -3735,7 +3966,7 @@
         <v>237</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>4</v>
@@ -3746,7 +3977,7 @@
         <v>238</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>4</v>
@@ -3757,7 +3988,7 @@
         <v>239</v>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>4</v>
@@ -3768,7 +3999,7 @@
         <v>240</v>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>4</v>
@@ -3779,7 +4010,7 @@
         <v>241</v>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>4</v>
@@ -3790,7 +4021,7 @@
         <v>242</v>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>4</v>
@@ -3801,7 +4032,7 @@
         <v>243</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>4</v>
@@ -3812,7 +4043,7 @@
         <v>244</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>4</v>
@@ -3823,7 +4054,7 @@
         <v>245</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>4</v>
@@ -3834,7 +4065,7 @@
         <v>246</v>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>4</v>
@@ -3845,7 +4076,7 @@
         <v>247</v>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>4</v>
@@ -3856,7 +4087,7 @@
         <v>248</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>4</v>
@@ -3867,7 +4098,7 @@
         <v>249</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>4</v>
@@ -3878,7 +4109,7 @@
         <v>250</v>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>4</v>
@@ -3889,7 +4120,7 @@
         <v>251</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>4</v>
@@ -3900,7 +4131,7 @@
         <v>252</v>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C250" t="s">
         <v>4</v>
@@ -3911,7 +4142,7 @@
         <v>253</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
         <v>4</v>
@@ -3922,7 +4153,7 @@
         <v>254</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
         <v>4</v>
@@ -3933,7 +4164,7 @@
         <v>255</v>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C253" t="s">
         <v>4</v>
@@ -3944,7 +4175,7 @@
         <v>256</v>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C254" t="s">
         <v>4</v>
@@ -3955,7 +4186,7 @@
         <v>257</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C255" t="s">
         <v>4</v>
@@ -3966,7 +4197,7 @@
         <v>258</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C256" t="s">
         <v>4</v>
@@ -3977,7 +4208,7 @@
         <v>259</v>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C257" t="s">
         <v>4</v>
@@ -3988,7 +4219,7 @@
         <v>260</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C258" t="s">
         <v>4</v>
@@ -3999,7 +4230,7 @@
         <v>261</v>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C259" t="s">
         <v>4</v>
@@ -4010,7 +4241,7 @@
         <v>262</v>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C260" t="s">
         <v>4</v>
@@ -4021,7 +4252,7 @@
         <v>263</v>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C261" t="s">
         <v>4</v>
@@ -4032,7 +4263,7 @@
         <v>264</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C262" t="s">
         <v>4</v>
@@ -4043,7 +4274,7 @@
         <v>265</v>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
         <v>4</v>
@@ -4054,7 +4285,7 @@
         <v>266</v>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
         <v>4</v>
@@ -4065,7 +4296,7 @@
         <v>267</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C265" t="s">
         <v>4</v>
@@ -4076,7 +4307,7 @@
         <v>268</v>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C266" t="s">
         <v>4</v>
@@ -4087,7 +4318,7 @@
         <v>269</v>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C267" t="s">
         <v>4</v>
@@ -4098,9 +4329,856 @@
         <v>270</v>
       </c>
       <c r="B268" t="n">
+        <v>4</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>271</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270" t="n">
+        <v>4</v>
+      </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>273</v>
+      </c>
+      <c r="B271" t="n">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>274</v>
+      </c>
+      <c r="B272" t="n">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>275</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="B274" t="n">
+        <v>4</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275" t="n">
+        <v>4</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276" t="n">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277" t="n">
+        <v>4</v>
+      </c>
+      <c r="C277" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4</v>
+      </c>
+      <c r="C279" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3</v>
+      </c>
+      <c r="C283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284" t="n">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3</v>
+      </c>
+      <c r="C285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286" t="n">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287" t="n">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289" t="n">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290" t="n">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291" t="n">
+        <v>3</v>
+      </c>
+      <c r="C291" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3</v>
+      </c>
+      <c r="C293" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3</v>
+      </c>
+      <c r="C294" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3</v>
+      </c>
+      <c r="C295" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3</v>
+      </c>
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+      <c r="C303" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+      <c r="C304" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+      <c r="C305" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+      <c r="C306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+      <c r="C307" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+      <c r="C308" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2</v>
+      </c>
+      <c r="C309" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+      <c r="C310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+      <c r="C311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+      <c r="C312" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+      <c r="C313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+      <c r="C314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+      <c r="C315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+      <c r="C316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+      <c r="C318" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+      <c r="C319" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+      <c r="C320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+      <c r="C321" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+      <c r="C322" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+      <c r="C323" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+      <c r="C324" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2</v>
+      </c>
+      <c r="C325" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326" t="n">
         <v>1</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+      <c r="C327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+      <c r="C329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+      <c r="C332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+      <c r="C333" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+      <c r="C334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+      <c r="C335" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+      <c r="C336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+      <c r="C337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+      <c r="C339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+      <c r="C340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+      <c r="C341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+      <c r="C342" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>346</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+      <c r="C345" t="s">
         <v>4</v>
       </c>
     </row>
